--- a/GradeDistributionsDB/Fall2013/Output/Fall2013 GB.xlsx
+++ b/GradeDistributionsDB/Fall2013/Output/Fall2013 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>Course</t>
   </si>
@@ -395,6 +395,18 @@
   </si>
   <si>
     <t>PSAA-601</t>
+  </si>
+  <si>
+    <t>BEARFIELD D</t>
+  </si>
+  <si>
+    <t>13.51%</t>
+  </si>
+  <si>
+    <t>83.78%</t>
+  </si>
+  <si>
+    <t>2.70%</t>
   </si>
   <si>
     <t>WEST W</t>
@@ -911,7 +923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1926,516 +1938,516 @@
         <v>127</v>
       </c>
       <c r="C88" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="D88" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="B89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" t="n">
         <v>3.5</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>83</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>83</v>
       </c>
-      <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>128</v>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" t="n">
+      <c r="A91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" t="n">
         <v>3.667</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>86</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>119</v>
       </c>
-      <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>130</v>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" t="n">
+      <c r="A94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" t="n">
         <v>3.739</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>46</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>47</v>
       </c>
-      <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>132</v>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="B97" t="s">
-        <v>133</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="A97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" t="n">
         <v>3.765</v>
       </c>
-      <c r="D97" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" t="s">
-        <v>135</v>
-      </c>
-      <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>136</v>
+      <c r="D98" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" t="s">
+        <v>139</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="B100" t="s">
+      <c r="A100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.671</v>
+      </c>
+      <c r="D101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" t="s">
+        <v>51</v>
+      </c>
+      <c r="F101" t="s">
+        <v>143</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" t="s">
         <v>137</v>
       </c>
-      <c r="C100" t="n">
-        <v>3.671</v>
-      </c>
-      <c r="D100" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" t="s">
-        <v>51</v>
-      </c>
-      <c r="F100" t="s">
-        <v>139</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>133</v>
-      </c>
-      <c r="C103" t="n">
+      <c r="C104" t="n">
         <v>3.529</v>
       </c>
-      <c r="D103" t="s">
-        <v>141</v>
-      </c>
-      <c r="E103" t="s">
-        <v>142</v>
-      </c>
-      <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>143</v>
+      <c r="D104" t="s">
+        <v>145</v>
+      </c>
+      <c r="E104" t="s">
+        <v>146</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="B106" t="s">
-        <v>144</v>
-      </c>
-      <c r="C106" t="n">
-        <v>3.4745</v>
-      </c>
-      <c r="D106" t="s">
-        <v>145</v>
-      </c>
-      <c r="E106" t="s">
-        <v>146</v>
-      </c>
-      <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" t="s">
-        <v>13</v>
+      <c r="A106" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="B107" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C107" t="n">
+        <v>3.4745</v>
+      </c>
+      <c r="D107" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" t="s">
+        <v>150</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" t="n">
         <v>3.529</v>
       </c>
-      <c r="D107" t="s">
-        <v>141</v>
-      </c>
-      <c r="E107" t="s">
-        <v>142</v>
-      </c>
-      <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>148</v>
+      <c r="D108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E108" t="s">
+        <v>146</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="B110" t="s">
-        <v>149</v>
-      </c>
-      <c r="C110" t="n">
+      <c r="A110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" t="n">
         <v>3.775</v>
       </c>
-      <c r="D110" t="s">
-        <v>150</v>
-      </c>
-      <c r="E110" t="s">
-        <v>151</v>
-      </c>
-      <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>152</v>
+      <c r="D111" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" t="s">
+        <v>155</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="B113" t="s">
-        <v>153</v>
-      </c>
-      <c r="C113" t="n">
+      <c r="A113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="B114" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" t="n">
         <v>3.529</v>
       </c>
-      <c r="D113" t="s">
-        <v>154</v>
-      </c>
-      <c r="E113" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>156</v>
+      <c r="D114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="B116" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" t="n">
+      <c r="A116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="B117" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" t="n">
         <v>3.889</v>
       </c>
-      <c r="D116" t="s">
-        <v>158</v>
-      </c>
-      <c r="E116" t="s">
-        <v>159</v>
-      </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
-        <v>160</v>
+      <c r="D117" t="s">
+        <v>162</v>
+      </c>
+      <c r="E117" t="s">
+        <v>163</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="B119" t="s">
-        <v>129</v>
-      </c>
-      <c r="C119" t="n">
+      <c r="A119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="B120" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" t="n">
         <v>3.583</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>58</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E120" t="s">
         <v>119</v>
       </c>
-      <c r="F119" t="s">
-        <v>161</v>
-      </c>
-      <c r="G119" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
-        <v>162</v>
+      <c r="F120" t="s">
+        <v>165</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="B122" t="s">
-        <v>163</v>
-      </c>
-      <c r="C122" t="n">
+      <c r="A122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="B123" t="s">
+        <v>167</v>
+      </c>
+      <c r="C123" t="n">
         <v>3.4</v>
       </c>
-      <c r="D122" t="s">
-        <v>164</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" t="s">
-        <v>165</v>
-      </c>
-      <c r="G122" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="s">
-        <v>166</v>
+      <c r="D123" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>169</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="B125" t="s">
-        <v>167</v>
-      </c>
-      <c r="C125" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D125" t="s">
-        <v>168</v>
-      </c>
-      <c r="E125" t="s">
-        <v>119</v>
-      </c>
-      <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" t="s">
-        <v>169</v>
+      <c r="A125" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="B126" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C126" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D126" t="s">
+        <v>172</v>
+      </c>
+      <c r="E126" t="s">
+        <v>119</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" t="s">
+        <v>174</v>
+      </c>
+      <c r="C127" t="n">
         <v>3.5</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>83</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E127" t="s">
         <v>83</v>
       </c>
-      <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>171</v>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="B129" t="s">
-        <v>172</v>
-      </c>
-      <c r="C129" t="n">
-        <v>3.143</v>
-      </c>
-      <c r="D129" t="s">
-        <v>173</v>
-      </c>
-      <c r="E129" t="s">
-        <v>174</v>
-      </c>
-      <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" t="s">
-        <v>105</v>
+      <c r="A129" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C130" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="D130" t="s">
+        <v>177</v>
+      </c>
+      <c r="E130" t="s">
+        <v>178</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="B131" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" t="n">
         <v>4</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D131" t="s">
         <v>55</v>
       </c>
-      <c r="E130" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="s">
-        <v>175</v>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="B133" t="s">
-        <v>176</v>
-      </c>
-      <c r="C133" t="n">
+      <c r="A133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="B134" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" t="n">
         <v>3.826</v>
       </c>
-      <c r="D133" t="s">
-        <v>177</v>
-      </c>
-      <c r="E133" t="s">
-        <v>178</v>
-      </c>
-      <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
-        <v>179</v>
+      <c r="D134" t="s">
+        <v>181</v>
+      </c>
+      <c r="E134" t="s">
+        <v>182</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="B136" t="s">
-        <v>180</v>
-      </c>
-      <c r="C136" t="n">
-        <v>4</v>
-      </c>
-      <c r="D136" t="s">
-        <v>55</v>
-      </c>
-      <c r="E136" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" t="s">
-        <v>13</v>
+      <c r="A136" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="C137" t="n">
         <v>4</v>
@@ -2458,7 +2470,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="C138" t="n">
         <v>4</v>
@@ -2481,7 +2493,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="B139" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C139" t="n">
         <v>4</v>
@@ -2504,7 +2516,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="B140" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C140" t="n">
         <v>4</v>
@@ -2527,7 +2539,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C141" t="n">
         <v>4</v>
@@ -2548,31 +2560,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
-      <c r="A143" t="s">
-        <v>182</v>
+    <row r="142" spans="1:8">
+      <c r="B142" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>55</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="B144" t="s">
-        <v>183</v>
-      </c>
-      <c r="C144" t="n">
+      <c r="A144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="B145" t="s">
+        <v>187</v>
+      </c>
+      <c r="C145" t="n">
         <v>3.6103</v>
       </c>
-      <c r="D144" t="s">
-        <v>184</v>
-      </c>
-      <c r="E144" t="s">
-        <v>185</v>
-      </c>
-      <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s">
-        <v>186</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="D145" t="s">
+        <v>188</v>
+      </c>
+      <c r="E145" t="s">
+        <v>189</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" t="s">
+        <v>190</v>
+      </c>
+      <c r="H145" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Fall2013/Output/Fall2013 GB.xlsx
+++ b/GradeDistributionsDB/Fall2013/Output/Fall2013 GB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BUSH-631</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>23.08%</t>
   </si>
   <si>
+    <t>3.70%</t>
+  </si>
+  <si>
     <t>INTA-603</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t>31.25%</t>
   </si>
   <si>
+    <t>11.11%</t>
+  </si>
+  <si>
     <t>INTA-605</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
     <t>10.53%</t>
   </si>
   <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>LAYNE C</t>
   </si>
   <si>
@@ -250,6 +262,9 @@
     <t>15.38%</t>
   </si>
   <si>
+    <t>7.14%</t>
+  </si>
+  <si>
     <t>INTA-652</t>
   </si>
   <si>
@@ -280,6 +295,9 @@
     <t>16.67%</t>
   </si>
   <si>
+    <t>14.29%</t>
+  </si>
+  <si>
     <t>INTA-654</t>
   </si>
   <si>
@@ -331,9 +349,6 @@
     <t>85.71%</t>
   </si>
   <si>
-    <t>14.29%</t>
-  </si>
-  <si>
     <t>INTA-689</t>
   </si>
   <si>
@@ -379,6 +394,9 @@
     <t>3.33%</t>
   </si>
   <si>
+    <t>3.23%</t>
+  </si>
+  <si>
     <t>SMITH S</t>
   </si>
   <si>
@@ -394,6 +412,9 @@
     <t>32.56%</t>
   </si>
   <si>
+    <t>2.27%</t>
+  </si>
+  <si>
     <t>PSAA-601</t>
   </si>
   <si>
@@ -457,6 +478,9 @@
     <t>47.06%</t>
   </si>
   <si>
+    <t>5.56%</t>
+  </si>
+  <si>
     <t>PSAA-621</t>
   </si>
   <si>
@@ -505,9 +529,6 @@
     <t>88.89%</t>
   </si>
   <si>
-    <t>11.11%</t>
-  </si>
-  <si>
     <t>PSAA-636</t>
   </si>
   <si>
@@ -587,6 +608,9 @@
   </si>
   <si>
     <t>2.94%</t>
+  </si>
+  <si>
+    <t>8.11%</t>
   </si>
 </sst>
 </file>
@@ -624,12 +648,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -923,15 +946,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,1659 +979,1851 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.481</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>3.55</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>3.769</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>3.6487</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>3.6835</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
         <v>3.632</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
         <v>3.556</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
         <v>3.552</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C19" t="n">
         <v>3.7135</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C22" t="n">
         <v>3.739</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C31" t="n">
         <v>3.5</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C37" t="n">
         <v>3.538</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C40" t="n">
         <v>3.607</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C43" t="n">
         <v>3.565</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C46" t="n">
         <v>3.154</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C49" t="n">
         <v>3.63</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C50" t="n">
         <v>2.75</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C54" t="n">
         <v>3.167</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C57" t="n">
         <v>1.2</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G57" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C60" t="n">
         <v>3.375</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E60" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C63" t="n">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C66" t="n">
         <v>3.842</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C69" t="n">
         <v>3.444</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C72" t="n">
         <v>3.1905</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E72" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C75" t="n">
         <v>3.857</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C78" t="n">
         <v>3.579</v>
       </c>
       <c r="D78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" t="s">
         <v>108</v>
       </c>
-      <c r="E78" t="s">
-        <v>102</v>
-      </c>
       <c r="F78" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C79" t="n">
         <v>3.688</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C80" t="n">
         <v>3.75</v>
       </c>
       <c r="D80" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C81" t="n">
         <v>3.733</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E81" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C82" t="n">
         <v>3.7</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E82" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C83" t="n">
         <v>3.6075</v>
       </c>
       <c r="D83" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E83" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F83" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C84" t="n">
         <v>3.333</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C85" t="n">
         <v>3.673</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E85" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C88" t="n">
         <v>3.113</v>
       </c>
       <c r="D88" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E88" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F88" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C89" t="n">
         <v>3.5</v>
       </c>
       <c r="D89" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C92" t="n">
         <v>3.667</v>
       </c>
       <c r="D92" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C95" t="n">
         <v>3.739</v>
       </c>
       <c r="D95" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E95" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C98" t="n">
         <v>3.765</v>
       </c>
       <c r="D98" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C101" t="n">
         <v>3.671</v>
       </c>
       <c r="D101" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E101" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F101" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="B104" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" t="s">
-        <v>137</v>
       </c>
       <c r="C104" t="n">
         <v>3.529</v>
       </c>
       <c r="D104" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E104" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C107" t="n">
         <v>3.4745</v>
       </c>
       <c r="D107" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E107" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C108" t="n">
         <v>3.529</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E108" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="B111" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C111" t="n">
         <v>3.775</v>
       </c>
       <c r="D111" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E111" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C114" t="n">
         <v>3.529</v>
       </c>
       <c r="D114" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="B117" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C117" t="n">
         <v>3.889</v>
       </c>
       <c r="D117" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E117" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C120" t="n">
         <v>3.583</v>
       </c>
       <c r="D120" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E120" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F120" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C123" t="n">
         <v>3.4</v>
       </c>
       <c r="D123" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>176</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C126" t="n">
         <v>3.333</v>
       </c>
       <c r="D126" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E126" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="B127" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C127" t="n">
         <v>3.5</v>
       </c>
       <c r="D127" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E127" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="B130" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C130" t="n">
         <v>3.143</v>
       </c>
       <c r="D130" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E130" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I130" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C134" t="n">
         <v>3.826</v>
       </c>
       <c r="D134" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E134" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C137" t="n">
         <v>4</v>
       </c>
       <c r="D137" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C138" t="n">
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C140" t="n">
         <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C141" t="n">
         <v>4</v>
       </c>
       <c r="D141" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C145" t="n">
         <v>3.6103</v>
       </c>
       <c r="D145" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E145" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G145" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H145" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Fall2013/Output/Fall2013 GB.xlsx
+++ b/GradeDistributionsDB/Fall2013/Output/Fall2013 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>Course</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>MORRISON J</t>
+  </si>
+  <si>
+    <t>TACKETT-GIBSON M</t>
   </si>
   <si>
     <t>BROWN W</t>
@@ -923,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2516,7 +2519,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="B140" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C140" t="n">
         <v>4</v>
@@ -2539,7 +2542,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C141" t="n">
         <v>4</v>
@@ -2562,7 +2565,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="B142" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C142" t="n">
         <v>4</v>
@@ -2583,31 +2586,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>186</v>
+    <row r="143" spans="1:8">
+      <c r="B143" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>55</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="B145" t="s">
+      <c r="A145" t="s">
         <v>187</v>
       </c>
-      <c r="C145" t="n">
+    </row>
+    <row r="146" spans="1:8">
+      <c r="B146" t="s">
+        <v>188</v>
+      </c>
+      <c r="C146" t="n">
         <v>3.6103</v>
       </c>
-      <c r="D145" t="s">
-        <v>188</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="D146" t="s">
         <v>189</v>
       </c>
-      <c r="F145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="E146" t="s">
         <v>190</v>
       </c>
-      <c r="H145" t="s">
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>191</v>
+      </c>
+      <c r="H146" t="s">
         <v>13</v>
       </c>
     </row>
